--- a/medicine/Enfance/Cati_Baur/Cati_Baur.xlsx
+++ b/medicine/Enfance/Cati_Baur/Cati_Baur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cati Baur est une illustratrice, auteure et dessinatrice de bande dessinée française, née à Genève le 2 novembre 1973.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cati Baur a fait des études en histoire de l'art[1] et elle a exercé comme libraire[2]. À partir de 2004, elle tient un blog dessiné appelé Princesse Capiton. Baur prend la décision d'un sevrage tabagique et, dans la foulée, relate son expérience de sevrage dans J'arrête de fumer, publié en novembre 2007 chez Delcourt[2],[3]. Son ouvrage de fiction Vacance, qui « raconte comment Marie, mère de famille, éprouve un jour le besoin de tout quitter », est remarqué sur Aujourd'hui en France[2].
-Malika Ferdjoukh a écrit une série littéraire jeunesse Quatre Sœurs, au début des années 2000. Cati Baur l'adapte en série de bandes dessinées jeunesse, à partir de 2011. D'après L'Express, la série est « une adaptation graphique à la fois subtile et tendre » [4]. Le Télégramme relaie aussi un écho favorable sur le travail de Cati Baur dans cette adaptation[5], tout comme Actua BD. Les trois premiers tomes ont été sélectionnés à trois éditions du Festival d’Angoulême, en Sélection Jeunesse[6],[7],[8].
-Baur est profondément influencée par Claire Bretécher[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cati Baur a fait des études en histoire de l'art et elle a exercé comme libraire. À partir de 2004, elle tient un blog dessiné appelé Princesse Capiton. Baur prend la décision d'un sevrage tabagique et, dans la foulée, relate son expérience de sevrage dans J'arrête de fumer, publié en novembre 2007 chez Delcourt,. Son ouvrage de fiction Vacance, qui « raconte comment Marie, mère de famille, éprouve un jour le besoin de tout quitter », est remarqué sur Aujourd'hui en France.
+Malika Ferdjoukh a écrit une série littéraire jeunesse Quatre Sœurs, au début des années 2000. Cati Baur l'adapte en série de bandes dessinées jeunesse, à partir de 2011. D'après L'Express, la série est « une adaptation graphique à la fois subtile et tendre » . Le Télégramme relaie aussi un écho favorable sur le travail de Cati Baur dans cette adaptation, tout comme Actua BD. Les trois premiers tomes ont été sélectionnés à trois éditions du Festival d’Angoulême, en Sélection Jeunesse.
+Baur est profondément influencée par Claire Bretécher.
 </t>
         </is>
       </c>
@@ -546,13 +560,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auteure et illustratrice
-J'arrête de fumer, Éd. Delcourt, 2007
+          <t>Auteure et illustratrice</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>J'arrête de fumer, Éd. Delcourt, 2007
 Vacance, Éd. Delcourt, 2009
 Vent mauvais, Rue de Sèvres, 2020
-Pisse-Mémé, Dargaud, 2023
-Illustratrice ou dessinatrice
-Ma nouvelle vie, texte d'Isabelle Lortholary, L'École des loisirs, 2012
+Pisse-Mémé, Dargaud, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cati_Baur</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cati_Baur</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustratrice ou dessinatrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ma nouvelle vie, texte d'Isabelle Lortholary, L'École des loisirs, 2012
 Le Club de la pluie, texte de Malika Ferdjoukh, L'École des loisirs
 Le Club de la pluie au pensionnat des mystères, 2014
 Le Club de la pluie brave les tempêtes, 2014
@@ -577,44 +630,80 @@
 Igor, avec Nicolas Morlet, Little Urban
 Jamais sans mes oreilles !, 2019
 J'adore, 2020
-Le Club des inadapté.e.s, d'après le roman de Martin Page, couleurs de Christophe Bouchard, Rue de Sèvres, 2021
-Participations
-Tribute to Popeye, collectif, éditions Charette, 2010
+Le Club des inadapté.e.s, d'après le roman de Martin Page, couleurs de Christophe Bouchard, Rue de Sèvres, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cati_Baur</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cati_Baur</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Participations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tribute to Popeye, collectif, éditions Charette, 2010
 Bédénovela Les Autres Gens, épisode 76, 2010</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Cati_Baur</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cati_Baur</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Festival d'Angoulême 2012 : Sélection jeunesse[6] pour Quatre sœurs, t. 1 : Enid, avec Malika Ferdjoukh
-Festival d'Angoulême 2015 : Sélection jeunesse[7] pour Quatre sœurs, t. 2 : Hortense, avec Malika Ferdjoukh
- Prix de la Semaine Paul Hurtmans du livre de jeunesse 2016[9] pour Quatre sœurs, tome 1 : Enid, texte de Malika Ferdjoukh
-Festival d'Angoulême 2017 : Sélection jeunesse[8] pour Quatre sœurs, t. 3 : Bettina, avec Cati Baur
-Prix Artémisia 2021 : Sélection[10] pour Vent mauvais</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Festival d'Angoulême 2012 : Sélection jeunesse pour Quatre sœurs, t. 1 : Enid, avec Malika Ferdjoukh
+Festival d'Angoulême 2015 : Sélection jeunesse pour Quatre sœurs, t. 2 : Hortense, avec Malika Ferdjoukh
+ Prix de la Semaine Paul Hurtmans du livre de jeunesse 2016 pour Quatre sœurs, tome 1 : Enid, texte de Malika Ferdjoukh
+Festival d'Angoulême 2017 : Sélection jeunesse pour Quatre sœurs, t. 3 : Bettina, avec Cati Baur
+Prix Artémisia 2021 : Sélection pour Vent mauvais</t>
         </is>
       </c>
     </row>
